--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -1,35 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ericn\PycharmProjects\ItemSpreadSheetAutomater\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88929960-B5AA-4903-B335-198BC3993C26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>after_tax</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00" numFmtId="164"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,102 +69,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$D$2:$D$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,116 +389,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>transaction_id</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>product_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>after_tax</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>2.2487</v>
-      </c>
-      <c r="E2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>3.3787</v>
-      </c>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>4.5087</v>
-      </c>
-      <c r="E4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.6387</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.7687</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ericn\PycharmProjects\ItemSpreadSheetAutomater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88929960-B5AA-4903-B335-198BC3993C26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101FE9E6-E69E-4B70-8516-A1FA499585B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>transaction_id</t>
+    <t>date_of_purchase</t>
   </si>
   <si>
     <t>product_id</t>
@@ -390,19 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -443,10 +446,13 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
